--- a/incorporados.xlsx
+++ b/incorporados.xlsx
@@ -115,57 +115,1033 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B166" activeCellId="0" sqref="B166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="n">
+        <v>123582</v>
+      </c>
+      <c r="B1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>123583</v>
+      </c>
+      <c r="B2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>123584</v>
+      </c>
+      <c r="B3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>123585</v>
+      </c>
+      <c r="B4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>123586</v>
+      </c>
+      <c r="B5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>123587</v>
+      </c>
+      <c r="B6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>123588</v>
+      </c>
+      <c r="B7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>123589</v>
+      </c>
+      <c r="B8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>123590</v>
+      </c>
+      <c r="B9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>123591</v>
+      </c>
+      <c r="B10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>123592</v>
+      </c>
+      <c r="B11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>123593</v>
+      </c>
+      <c r="B12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>123594</v>
+      </c>
+      <c r="B13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>123595</v>
+      </c>
+      <c r="B14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>123596</v>
+      </c>
+      <c r="B15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>123597</v>
+      </c>
+      <c r="B16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>123598</v>
+      </c>
+      <c r="B17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>123599</v>
+      </c>
+      <c r="B18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>123600</v>
+      </c>
+      <c r="B19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>123601</v>
+      </c>
+      <c r="B20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>123602</v>
+      </c>
+      <c r="B21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>123603</v>
+      </c>
+      <c r="B22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>123604</v>
+      </c>
+      <c r="B23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>123605</v>
+      </c>
+      <c r="B24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>123606</v>
+      </c>
+      <c r="B25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>123607</v>
+      </c>
+      <c r="B26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>123608</v>
+      </c>
+      <c r="B27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>123609</v>
+      </c>
+      <c r="B28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>123610</v>
+      </c>
+      <c r="B29" s="0"/>
+    </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="n">
+        <v>123611</v>
+      </c>
+      <c r="B30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>123612</v>
+      </c>
+      <c r="B31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>123613</v>
+      </c>
+      <c r="B32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>123614</v>
+      </c>
+      <c r="B33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>123615</v>
+      </c>
+      <c r="B34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>123616</v>
+      </c>
+      <c r="B35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>123617</v>
+      </c>
+      <c r="B36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>123618</v>
+      </c>
+      <c r="B37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>123619</v>
+      </c>
+      <c r="B38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>123620</v>
+      </c>
+      <c r="B39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>123621</v>
+      </c>
+      <c r="B40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>123622</v>
+      </c>
+      <c r="B41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>123623</v>
+      </c>
+      <c r="B42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>123624</v>
+      </c>
+      <c r="B43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>123625</v>
+      </c>
+      <c r="B44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>123626</v>
+      </c>
+      <c r="B45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>123627</v>
+      </c>
+      <c r="B46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>123628</v>
+      </c>
+      <c r="B47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>123629</v>
+      </c>
+      <c r="B48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>123630</v>
+      </c>
+      <c r="B49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>123631</v>
+      </c>
+      <c r="B50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>123632</v>
+      </c>
+      <c r="B51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>123633</v>
+      </c>
+      <c r="B52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>123634</v>
+      </c>
+      <c r="B53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
+        <v>123635</v>
+      </c>
+      <c r="B54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
+        <v>123636</v>
+      </c>
+      <c r="B55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>123637</v>
+      </c>
+      <c r="B56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
+        <v>123638</v>
+      </c>
+      <c r="B57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
+        <v>123639</v>
+      </c>
+      <c r="B58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
+        <v>123640</v>
+      </c>
+      <c r="B59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
+        <v>123641</v>
+      </c>
+      <c r="B60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
+        <v>123642</v>
+      </c>
+      <c r="B61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
+        <v>123643</v>
+      </c>
+      <c r="B62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
+        <v>123644</v>
+      </c>
+      <c r="B63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
+        <v>123645</v>
+      </c>
+      <c r="B64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
+        <v>123646</v>
+      </c>
+      <c r="B65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
+        <v>123647</v>
+      </c>
+      <c r="B66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
+        <v>123648</v>
+      </c>
+      <c r="B67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
+        <v>123649</v>
+      </c>
+      <c r="B68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
+        <v>123650</v>
+      </c>
+      <c r="B69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
+        <v>123651</v>
+      </c>
+      <c r="B70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
+        <v>123652</v>
+      </c>
+      <c r="B71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
+        <v>123653</v>
+      </c>
+      <c r="B72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
+        <v>123654</v>
+      </c>
+      <c r="B73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
+        <v>123655</v>
+      </c>
+      <c r="B74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
+        <v>123656</v>
+      </c>
+      <c r="B75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
+        <v>123657</v>
+      </c>
+      <c r="B76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
+        <v>123658</v>
+      </c>
+      <c r="B77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
+        <v>123659</v>
+      </c>
+      <c r="B78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
+        <v>123660</v>
+      </c>
+      <c r="B79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
+        <v>123661</v>
+      </c>
+      <c r="B80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
+        <v>123662</v>
+      </c>
+      <c r="B81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
+        <v>123663</v>
+      </c>
+      <c r="B82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
+        <v>123664</v>
+      </c>
+      <c r="B83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
+        <v>123665</v>
+      </c>
+      <c r="B84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
+        <v>123666</v>
+      </c>
+      <c r="B85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
+        <v>123667</v>
+      </c>
+      <c r="B86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
+        <v>123668</v>
+      </c>
+      <c r="B87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
+        <v>123669</v>
+      </c>
+      <c r="B88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
+        <v>123670</v>
+      </c>
+      <c r="B89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
+        <v>123671</v>
+      </c>
+      <c r="B90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
+        <v>123672</v>
+      </c>
+      <c r="B91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
+        <v>123673</v>
+      </c>
+      <c r="B92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
+        <v>123674</v>
+      </c>
+      <c r="B93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
+        <v>123675</v>
+      </c>
+      <c r="B94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
+        <v>123676</v>
+      </c>
+      <c r="B95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
+        <v>123677</v>
+      </c>
+      <c r="B96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>123678</v>
+      </c>
+      <c r="B97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
+        <v>123679</v>
+      </c>
+      <c r="B98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
+        <v>123680</v>
+      </c>
+      <c r="B99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
+        <v>123681</v>
+      </c>
+      <c r="B100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
+        <v>123682</v>
+      </c>
+      <c r="B101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
+        <v>123683</v>
+      </c>
+      <c r="B102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
+        <v>123684</v>
+      </c>
+      <c r="B103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
+        <v>123685</v>
+      </c>
+      <c r="B104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
+        <v>123686</v>
+      </c>
+      <c r="B105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
+        <v>123687</v>
+      </c>
+      <c r="B106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
+        <v>123688</v>
+      </c>
+      <c r="B107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
+        <v>123689</v>
+      </c>
+      <c r="B108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
+        <v>123690</v>
+      </c>
+      <c r="B109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
+        <v>123691</v>
+      </c>
+      <c r="B110" s="0"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
+        <v>123692</v>
+      </c>
+      <c r="B111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
+        <v>123693</v>
+      </c>
+      <c r="B112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
+        <v>123694</v>
+      </c>
+      <c r="B113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
+        <v>123695</v>
+      </c>
+      <c r="B114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
+        <v>123696</v>
+      </c>
+      <c r="B115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
+        <v>123697</v>
+      </c>
+      <c r="B116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
+        <v>123698</v>
+      </c>
+      <c r="B117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
+        <v>123699</v>
+      </c>
+      <c r="B118" s="0"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
+        <v>123700</v>
+      </c>
+      <c r="B119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
+        <v>123701</v>
+      </c>
+      <c r="B120" s="0"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
+        <v>123702</v>
+      </c>
+      <c r="B121" s="0"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
+        <v>123703</v>
+      </c>
+      <c r="B122" s="0"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
+        <v>123704</v>
+      </c>
+      <c r="B123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
+        <v>123705</v>
+      </c>
+      <c r="B124" s="0"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
+        <v>123706</v>
+      </c>
+      <c r="B125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
+        <v>123707</v>
+      </c>
+      <c r="B126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
+        <v>123708</v>
+      </c>
+      <c r="B127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
+        <v>123709</v>
+      </c>
+      <c r="B128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
+        <v>123710</v>
+      </c>
+      <c r="B129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="n">
+        <v>123711</v>
+      </c>
+      <c r="B130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
+        <v>123712</v>
+      </c>
+      <c r="B131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
+        <v>123713</v>
+      </c>
+      <c r="B132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="n">
+        <v>123714</v>
+      </c>
+      <c r="B133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="n">
+        <v>123715</v>
+      </c>
+      <c r="B134" s="0"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="n">
+        <v>123716</v>
+      </c>
+      <c r="B135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="n">
+        <v>123717</v>
+      </c>
+      <c r="B136" s="0"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
+        <v>123718</v>
+      </c>
+      <c r="B137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
+        <v>123719</v>
+      </c>
+      <c r="B138" s="0"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
+        <v>123720</v>
+      </c>
+      <c r="B139" s="0"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
+        <v>123721</v>
+      </c>
+      <c r="B140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="n">
+        <v>123722</v>
+      </c>
+      <c r="B141" s="0"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="n">
+        <v>123723</v>
+      </c>
+      <c r="B142" s="0"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="n">
+        <v>123724</v>
+      </c>
+      <c r="B143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="n">
+        <v>123725</v>
+      </c>
+      <c r="B144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="n">
+        <v>123726</v>
+      </c>
+      <c r="B145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="n">
+        <v>123727</v>
+      </c>
+      <c r="B146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="n">
+        <v>123728</v>
+      </c>
+      <c r="B147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="n">
+        <v>123729</v>
+      </c>
+      <c r="B148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="n">
+        <v>123730</v>
+      </c>
+      <c r="B149" s="0"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>123731</v>
+      </c>
+      <c r="B150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>123732</v>
+      </c>
+      <c r="B151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>123733</v>
+      </c>
+      <c r="B152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>123734</v>
+      </c>
+      <c r="B153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>123735</v>
+      </c>
+      <c r="B154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>123736</v>
+      </c>
+      <c r="B155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>123737</v>
+      </c>
+      <c r="B156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>123738</v>
+      </c>
+      <c r="B157" s="0"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>123739</v>
+      </c>
+      <c r="B158" s="0"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>123740</v>
+      </c>
+      <c r="B159" s="0"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>123741</v>
+      </c>
+      <c r="B160" s="0"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>123742</v>
+      </c>
+      <c r="B161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>123743</v>
+      </c>
+      <c r="B162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>123744</v>
+      </c>
+      <c r="B163" s="0"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>123745</v>
+      </c>
+      <c r="B164" s="0"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>123746</v>
+      </c>
+      <c r="B165" s="0"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>123747</v>
+      </c>
+      <c r="B166" s="0"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>123748</v>
+      </c>
+      <c r="B167" s="0"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>123749</v>
+      </c>
+      <c r="B168" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Página &amp;P</oddFooter>
